--- a/ReadMe/작업내역.xlsx
+++ b/ReadMe/작업내역.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FinalTerm\ReadMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AD82954-E74F-417B-A914-1B370DDDE504}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD07E81-1B9B-4F3D-BD74-EEA954174D73}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12180" xr2:uid="{2D99DA8F-B510-4E2E-B57A-388FC1A7FF7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$32</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,17 +28,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>그래픽 리소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스코어 숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_INGAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR_1</t>
+  </si>
+  <si>
+    <t>CHAR_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR_2</t>
+  </si>
+  <si>
+    <t>CHAR_3</t>
+  </si>
+  <si>
+    <t>걷기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,12 +186,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,33 +510,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C1967D-C24E-40CD-809F-01FB763404B9}">
-  <dimension ref="B1:C2"/>
+  <dimension ref="B1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
+  <autoFilter ref="D1:D32" xr:uid="{C78AF235-BD01-48A2-BF71-AB55F2FB9625}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>